--- a/main_test.xlsx
+++ b/main_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{EF37369E-3C65-4422-A385-43B3E87FAA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{913D8269-CD2A-4F3A-BC77-3E987C9C3F66}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{EF37369E-3C65-4422-A385-43B3E87FAA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{006D9C6E-3EEE-49D0-B913-15A9A11CB94C}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1650" windowWidth="25650" windowHeight="13110" xr2:uid="{09C630A7-C619-4F8C-AEEC-948C38E3CD87}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="25185" windowHeight="13800" xr2:uid="{09C630A7-C619-4F8C-AEEC-948C38E3CD87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
   <si>
     <t>Because I asked to send a message regarding canceling an appt due to continued reschedule of my Dental and you sent me to a Survey and now I am here performing a survey instead I should be cancelling my Dental Appt</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Early pop up</t>
-  </si>
-  <si>
-    <t>Neutral</t>
   </si>
   <si>
     <t>Other</t>
@@ -92,9 +89,6 @@
     <t>Making sure my profile information is up to date.</t>
   </si>
   <si>
-    <t>Answered Question</t>
-  </si>
-  <si>
     <t>Could not access messaging app.</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
   </si>
   <si>
     <t>Everything keeps changing</t>
-  </si>
-  <si>
-    <t>Integration</t>
   </si>
   <si>
     <t>hard to navigate</t>
@@ -129,9 +120,6 @@
   </si>
   <si>
     <t>Was not able to message the person I wanted.</t>
-  </si>
-  <si>
-    <t>Triage Group</t>
   </si>
   <si>
     <t>The effort used by ID.ME to assist me was so great that I was thorough  "IMPRESSED!"   Thank you.</t>
@@ -180,6 +168,9 @@
   </si>
   <si>
     <t>Hard to nav.</t>
+  </si>
+  <si>
+    <t>Integration and changes</t>
   </si>
 </sst>
 </file>
@@ -837,13 +828,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE0C25B-2BA3-4728-AAF1-6F99C5445E6C}">
   <dimension ref="A1:C1917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
   </cols>
@@ -861,7 +852,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
@@ -878,15 +869,15 @@
         <v>7</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>6</v>
@@ -900,100 +891,100 @@
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>5</v>
@@ -1002,67 +993,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>6</v>
@@ -1070,40 +1061,40 @@
     </row>
     <row r="21" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>5</v>
@@ -1114,109 +1105,109 @@
     </row>
     <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>6</v>
@@ -1224,13 +1215,13 @@
     </row>
     <row r="35" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -6940,8 +6931,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C35" xr:uid="{93FF64B6-7F0F-4CED-BE5A-9208F7E14287}">
       <formula1>"Dev, Mixed, Negative, Neutral, Positive"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B35" xr:uid="{45668B29-38C1-4FF8-9FF5-6C3A480A9B79}">
-      <formula1>"Answered Question, Benefits, Can't Refill, Can't Reply, Content, Early pop up, Ease of use, Error, Feature Req, Findability/Nav, Integration, Missing Rx, Mixed Status, Other, Page Length, Sign in/access, Sort, Supplies, Triage Group, Unrelated"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B35" xr:uid="{215F14DF-289D-462A-A5E6-F665F8984522}">
+      <formula1>"Integration and changes, Ease of use, Other, Early pop up, Findability/Nav, Sign in/access"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
